--- a/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 19,57</t>
+          <t>5,76; 19,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 22,94</t>
+          <t>11,52; 22,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,39</t>
+          <t>10,09; 18,2</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 18,43</t>
+          <t>11,94; 18,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,85; 27,66</t>
+          <t>21,97; 27,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 22,27</t>
+          <t>17,9; 22,13</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,38</t>
+          <t>10,49; 15,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,71</t>
+          <t>20,09; 24,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 19,42</t>
+          <t>15,92; 19,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,16</t>
+          <t>9,82; 15,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,88</t>
+          <t>11,77; 21,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,19</t>
+          <t>11,97; 17,44</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 18,96</t>
+          <t>14,09; 18,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,61; 26,86</t>
+          <t>21,83; 26,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,0; 22,56</t>
+          <t>18,99; 22,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 15,38</t>
+          <t>12,85; 15,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,95; 23,38</t>
+          <t>19,83; 23,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,14</t>
+          <t>17,1; 19,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 19,28</t>
+          <t>5,84; 19,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 22,17</t>
+          <t>11,74; 22,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,2</t>
+          <t>10,57; 18,39</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 18,46</t>
+          <t>12,05; 18,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 27,85</t>
+          <t>21,85; 27,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 22,13</t>
+          <t>17,84; 22,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 15,23</t>
+          <t>10,3; 15,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 24,58</t>
+          <t>20,31; 24,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 19,47</t>
+          <t>15,81; 19,42</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,3</t>
+          <t>9,9; 15,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 21,41</t>
+          <t>10,73; 20,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 17,44</t>
+          <t>11,6; 17,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,98</t>
+          <t>14,04; 18,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,83; 26,94</t>
+          <t>21,61; 26,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,99; 22,56</t>
+          <t>19,0; 22,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,85; 15,43</t>
+          <t>12,66; 15,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,83; 23,35</t>
+          <t>19,95; 23,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 19,26</t>
+          <t>17,02; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 19,57</t>
+          <t>11,21; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 22,94</t>
+          <t>20,41; 25,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,39</t>
+          <t>16,57; 20,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>15,7%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 18,43</t>
+          <t>4,82; 13,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,85; 27,66</t>
+          <t>20,13; 24,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 22,27</t>
+          <t>10,03; 18,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>13,53%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,38</t>
+          <t>9,51; 14,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,71</t>
+          <t>7,2; 19,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 19,42</t>
+          <t>8,99; 16,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,16</t>
+          <t>13,69; 18,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,88</t>
+          <t>18,06; 25,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,19</t>
+          <t>17,25; 21,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>16,81%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 18,96</t>
+          <t>9,95; 14,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,61; 26,86</t>
+          <t>17,08; 22,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,0; 22,56</t>
+          <t>14,35; 18,03</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14,03%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>21,97%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,66; 15,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,95; 23,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,02; 19,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 17,06</t>
+          <t>11,11; 17,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 25,34</t>
+          <t>20,51; 25,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,57; 20,34</t>
+          <t>16,64; 20,4</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 13,91</t>
+          <t>5,48; 13,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 24,5</t>
+          <t>20,13; 24,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,03; 18,23</t>
+          <t>10,85; 18,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 14,79</t>
+          <t>9,52; 14,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 19,84</t>
+          <t>7,71; 20,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,24</t>
+          <t>8,78; 16,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 18,52</t>
+          <t>13,89; 18,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 25,56</t>
+          <t>18,5; 25,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 21,43</t>
+          <t>17,27; 21,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,33</t>
+          <t>10,08; 14,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,48</t>
+          <t>16,39; 22,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,03</t>
+          <t>14,63; 18,19</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente cansado cuando despierta por la mañana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>86968</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>154495</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>241463</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>70463; 108689</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>138411; 173508</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>217888; 267152</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>123738</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>213764</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>337503</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65263; 165049</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>192709; 233262</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>233127; 392778</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>83488</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>138145</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>221633</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67093; 102762</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>71933; 187479</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>143831; 264981</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>148613</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>246550</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>395163</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>128590; 173256</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>202108; 275529</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>348657; 437875</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>442807</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>752955</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1195762</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>348477; 498536</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>599641; 820833</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1040709; 1293965</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>